--- a/Testcase.xlsx
+++ b/Testcase.xlsx
@@ -5,6 +5,12 @@
   <sheets>
     <sheet state="visible" name="Signup page" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Login page" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Home page" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Cart Page" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Sheet5" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Sheet6" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Sheet7" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Sheet8" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -12,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
   <si>
     <t>STORE 99</t>
   </si>
@@ -280,6 +286,9 @@
   </si>
   <si>
     <t>STR99_LP_14</t>
+  </si>
+  <si>
+    <t>Home Page</t>
   </si>
 </sst>
 </file>
@@ -365,6 +374,30 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -735,11 +768,11 @@
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="C3:F3"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
     <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:F3"/>
     <mergeCell ref="A4:G4"/>
   </mergeCells>
   <drawing r:id="rId1"/>
@@ -955,12 +988,156 @@
     </row>
   </sheetData>
   <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:G3"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="15.0"/>
+    <col customWidth="1" min="2" max="2" width="33.0"/>
+    <col customWidth="1" min="3" max="3" width="35.38"/>
+    <col customWidth="1" min="4" max="4" width="17.0"/>
+    <col customWidth="1" min="5" max="5" width="38.0"/>
+    <col customWidth="1" min="6" max="6" width="39.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="A3:G3"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Testcase.xlsx
+++ b/Testcase.xlsx
@@ -6,8 +6,8 @@
     <sheet state="visible" name="Signup page" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="Login page" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="Home page" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Cart Page" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Sheet5" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Search functionality" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Cart Page" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="Sheet6" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="Sheet7" sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="Sheet8" sheetId="8" r:id="rId11"/>
@@ -1090,12 +1090,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData/>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>

--- a/Testcase.xlsx
+++ b/Testcase.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="114">
   <si>
     <t>STORE 99</t>
   </si>
@@ -126,7 +126,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">mandatory fields are notmarked with 
+    <t xml:space="preserve">mandatory fields are not marked with 
 '*' symbol
 </t>
   </si>
@@ -134,6 +134,20 @@
     <t>Fail</t>
   </si>
   <si>
+    <t>check whether skipping of any field shows an 
+error validation message</t>
+  </si>
+  <si>
+    <t>1.open the application 
+2.click on user 
+3.click on signin 
+4.click on register now
+5.fill all the field except mobile number</t>
+  </si>
+  <si>
+    <t>error validation message should be displayed</t>
+  </si>
+  <si>
     <t>STR99_SP_04</t>
   </si>
   <si>
@@ -149,7 +163,201 @@
 is not present</t>
   </si>
   <si>
-    <t>STR99_SP_05</t>
+    <t>STR99_SP_06</t>
+  </si>
+  <si>
+    <t>verify that name field accepts characters only</t>
+  </si>
+  <si>
+    <t>1.open the application 
+2.click on user 
+3.click on signin 
+4.click on register now
+5.enter numbers and special characters in 
+the name field</t>
+  </si>
+  <si>
+    <t>12334#655</t>
+  </si>
+  <si>
+    <t>should accepts characters only</t>
+  </si>
+  <si>
+    <t>name field accepts numbers and 
+special characters</t>
+  </si>
+  <si>
+    <t>STR99_SP_07</t>
+  </si>
+  <si>
+    <t>check whether the name field accepts characters 
+upto 40</t>
+  </si>
+  <si>
+    <t>1.open the application 
+2.click on user 
+3.click on signin 
+4.click on register now
+6.enter characters more than 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sadsfdfgfgryuyiuivbvnbb
+vnghhfgdfgdcvcvcvccvcb
+</t>
+  </si>
+  <si>
+    <t>should display an error message while 
+characters exceed 40</t>
+  </si>
+  <si>
+    <t>not displaying error message</t>
+  </si>
+  <si>
+    <t>STR99_SP_08</t>
+  </si>
+  <si>
+    <t>check whether the mobile number field accepts 
+numbers upto 12 digits</t>
+  </si>
+  <si>
+    <t>999775533456576567</t>
+  </si>
+  <si>
+    <t>should display an error message when mobile
+ number exceeds 12 digits</t>
+  </si>
+  <si>
+    <t>STR99_SP_09</t>
+  </si>
+  <si>
+    <t>check the email id field without @ sign and the 
+domain name</t>
+  </si>
+  <si>
+    <t>1.open the application 
+2.click on user 
+3.click on signin 
+4.click on register now
+5.enter the name
+6.enter mobile number
+7.enter emailid without @domainname</t>
+  </si>
+  <si>
+    <t>asdffgg</t>
+  </si>
+  <si>
+    <t>should display an error validation message</t>
+  </si>
+  <si>
+    <t>STR99_SP_10</t>
+  </si>
+  <si>
+    <t>verify that a blank value is not allowed in the 
+password field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.open the application 
+2.click on user 
+3.click on signin 
+4.click on register now
+5.enter the name
+6.enter mobile number
+7.enter emailid without @domainname
+8.password field gives a blank value
+</t>
+  </si>
+  <si>
+    <t>Shows error validation message</t>
+  </si>
+  <si>
+    <t>STR99_SP_11</t>
+  </si>
+  <si>
+    <t>verify that password is visible in the form of 
+asterisks to ensure security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.open the application 
+2.click on user 
+3.click on signin 
+4.click on register now
+5.enter the name
+6.enter mobile number
+7.enter emailid without @domainname
+8.enter a password
+</t>
+  </si>
+  <si>
+    <t>A4tty#45</t>
+  </si>
+  <si>
+    <t>password should be visible in the form of 
+asterisks</t>
+  </si>
+  <si>
+    <t>password gets visible in the form of 
+asterisks</t>
+  </si>
+  <si>
+    <t>verify that show password button is present next 
+to the password textbox</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.open the application
+2.click on user
+3.click on signin </t>
+  </si>
+  <si>
+    <t>show password button should be present</t>
+  </si>
+  <si>
+    <t>button is not present</t>
+  </si>
+  <si>
+    <t>check whether the checkbox providing for 
+accepting the terms and conditions is clickable 
+or not</t>
+  </si>
+  <si>
+    <t>1.open the application 
+2.click on user 
+3.click on signin 
+4.click on register now
+5.enter the name
+6.enter mobile number
+7.enter emailid without @domainname
+8.enter the password
+9.click on checkbox</t>
+  </si>
+  <si>
+    <t>checkbox should be clickable</t>
+  </si>
+  <si>
+    <t>checkbox is clickable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify that clicking the hyperlink terms and 
+conditions redirect to the corresponding page </t>
+  </si>
+  <si>
+    <t>1.open the application 
+2.click on user 
+3.click on signin 
+4.click on register now
+5.enter the name
+6.enter mobile number
+7.enter emailid without @domainname
+8.enter the password
+9.click on checkbox
+10.click on terms and conditions</t>
+  </si>
+  <si>
+    <t>clicking the hyperlink should redirect to the 
+corresponding page</t>
+  </si>
+  <si>
+    <t>clicking the hyperlink is redirected to 
+the corresponding page</t>
   </si>
   <si>
     <t>verify that clicking submit button after entering all 
@@ -166,7 +374,7 @@
 the submit button</t>
   </si>
   <si>
-    <t>data are submittedto the server by 
+    <t>data are submitted to the server by 
 clicking the submit button</t>
   </si>
   <si>
@@ -233,32 +441,7 @@
     <t>password is encrypted</t>
   </si>
   <si>
-    <t>STR99_LP_04</t>
-  </si>
-  <si>
-    <t>verify that show password button is present next 
-to the password textbox</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.open the application
-2.click on user
-3.click on signin </t>
-  </si>
-  <si>
-    <t>hhj</t>
-  </si>
-  <si>
-    <t>show password button should be present</t>
-  </si>
-  <si>
-    <t>button is not present</t>
-  </si>
-  <si>
     <t>STR99_LP_05</t>
-  </si>
-  <si>
-    <t>check whether username textbox maximum limit 
-is 20 characters</t>
   </si>
   <si>
     <t>STR99_LP_06</t>
@@ -608,8 +791,8 @@
     <col customWidth="1" min="1" max="1" width="15.75"/>
     <col customWidth="1" min="2" max="2" width="37.63"/>
     <col customWidth="1" min="3" max="3" width="32.63"/>
-    <col customWidth="1" min="4" max="4" width="18.5"/>
-    <col customWidth="1" min="5" max="5" width="34.38"/>
+    <col customWidth="1" min="4" max="4" width="20.0"/>
+    <col customWidth="1" min="5" max="5" width="35.13"/>
     <col customWidth="1" min="6" max="6" width="28.38"/>
     <col customWidth="1" min="7" max="7" width="10.38"/>
   </cols>
@@ -727,42 +910,243 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>27</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>33</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="G10" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="C11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -815,7 +1199,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4">
@@ -843,22 +1227,22 @@
     </row>
     <row r="5">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>18</v>
@@ -866,22 +1250,22 @@
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>18</v>
@@ -889,22 +1273,22 @@
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>54</v>
+        <v>99</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>56</v>
+        <v>101</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>18</v>
@@ -912,78 +1296,53 @@
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>30</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>66</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="3" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1034,7 +1393,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4">

--- a/Testcase.xlsx
+++ b/Testcase.xlsx
@@ -3,14 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Signup page" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Login page" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Home page" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Search functionality" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Cart Page" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Sheet6" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Sheet7" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Sheet8" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="Launch screen" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Signup page" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Login page" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Home page" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Search functionality" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Product Details" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Cart" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="CheckoutPayment page" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="My orders" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="Defects Distribution" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="Test Report" sheetId="11" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -18,45 +21,124 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="386">
   <si>
     <t>STORE 99</t>
   </si>
   <si>
-    <t>Version No:</t>
-  </si>
-  <si>
-    <t>Verified By:</t>
-  </si>
-  <si>
-    <t>Tested By</t>
-  </si>
-  <si>
-    <t>Date</t>
+    <t>Version no:1.2.47</t>
+  </si>
+  <si>
+    <t>Verified by:</t>
+  </si>
+  <si>
+    <t>Tested by:</t>
+  </si>
+  <si>
+    <t>Date:</t>
+  </si>
+  <si>
+    <t>OS:Android</t>
+  </si>
+  <si>
+    <t>OS Version :13</t>
+  </si>
+  <si>
+    <t>Launch Screen</t>
+  </si>
+  <si>
+    <t>Test ID</t>
+  </si>
+  <si>
+    <t>Test Description</t>
+  </si>
+  <si>
+    <t>Test Procedure</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>STR99_LS_01</t>
+  </si>
+  <si>
+    <t>check the application open successfully</t>
+  </si>
+  <si>
+    <t>1.click on the application</t>
+  </si>
+  <si>
+    <t>should open the application successfully</t>
+  </si>
+  <si>
+    <t>open the application successfully</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>STR99_LS_02</t>
+  </si>
+  <si>
+    <t>check the launch screen displayed long enough to 
+read the text</t>
+  </si>
+  <si>
+    <t>should displayed for few seconds to read the text</t>
+  </si>
+  <si>
+    <t>screen is displayed for few seconds to read the 
+text</t>
+  </si>
+  <si>
+    <t>STR99_LS_03</t>
+  </si>
+  <si>
+    <t>check the application display is adapted to the 
+screen size</t>
+  </si>
+  <si>
+    <t>display should be adapted to the screen size</t>
+  </si>
+  <si>
+    <t>display is adapted to its screen size</t>
+  </si>
+  <si>
+    <t>STR99_LS_04</t>
+  </si>
+  <si>
+    <t>check the spelling of the application is correct</t>
+  </si>
+  <si>
+    <t>spelling should be correct</t>
+  </si>
+  <si>
+    <t>spelling is correct</t>
+  </si>
+  <si>
+    <t>STR99_LS_05</t>
+  </si>
+  <si>
+    <t>check the colour of the logo is same as per 
+requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logo colour should be same as specified </t>
+  </si>
+  <si>
+    <t>logo colour is same as per requirement</t>
   </si>
   <si>
     <t>SIGNUP PAGE</t>
-  </si>
-  <si>
-    <t>Test ID</t>
-  </si>
-  <si>
-    <t>Test Description</t>
-  </si>
-  <si>
-    <t>Test Procedure</t>
-  </si>
-  <si>
-    <t>Test Data</t>
-  </si>
-  <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Actual Result</t>
-  </si>
-  <si>
-    <t>Status</t>
   </si>
   <si>
     <t>STR99_SP_01</t>
@@ -69,8 +151,7 @@
   <si>
     <t>1.open the application
 2.click on user
-3.click on signin
-4.click on register now</t>
+3.click on register now</t>
   </si>
   <si>
     <t>All the required fields should be present</t>
@@ -78,9 +159,6 @@
   <si>
     <t>All the required fields should be 
 present</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
   <si>
     <t>STR99_SP_02</t>
@@ -93,12 +171,11 @@
   <si>
     <t>1.open the application 
 2.click on user 
-3.click on signin 
-4.click on register now
-5.enter existing username</t>
-  </si>
-  <si>
-    <t>asdfg</t>
+3.click on register now
+4.enter existing username</t>
+  </si>
+  <si>
+    <t>username(existing)</t>
   </si>
   <si>
     <t>error message should get displayed while 
@@ -117,8 +194,7 @@
   <si>
     <t>1.open the application 
 2.click on user 
-3.click on signin 
-4.click on register now</t>
+3.click on register now</t>
   </si>
   <si>
     <t xml:space="preserve">mandatory fields should be marked with 
@@ -134,36 +210,23 @@
     <t>Fail</t>
   </si>
   <si>
+    <t>STR99_SP_04</t>
+  </si>
+  <si>
     <t>check whether skipping of any field shows an 
 error validation message</t>
   </si>
   <si>
     <t>1.open the application 
 2.click on user 
-3.click on signin 
-4.click on register now
-5.fill all the field except mobile number</t>
+3.click on register now
+4.fill all the field except mobile number</t>
   </si>
   <si>
     <t>error validation message should be displayed</t>
   </si>
   <si>
-    <t>STR99_SP_04</t>
-  </si>
-  <si>
-    <t>verify the page has both submit and cancel/reset 
-button</t>
-  </si>
-  <si>
-    <t>both submit and cancel/reset 
-button should be present</t>
-  </si>
-  <si>
-    <t>both submit and cancel/reset button 
-is not present</t>
-  </si>
-  <si>
-    <t>STR99_SP_06</t>
+    <t>STR99_SP_05</t>
   </si>
   <si>
     <t>verify that name field accepts characters only</t>
@@ -171,13 +234,13 @@
   <si>
     <t>1.open the application 
 2.click on user 
-3.click on signin 
-4.click on register now
-5.enter numbers and special characters in 
+3.click on register now
+4.enter numbers and special characters in 
 the name field</t>
   </si>
   <si>
-    <t>12334#655</t>
+    <t>name(include special 
+characters and numbers)</t>
   </si>
   <si>
     <t>should accepts characters only</t>
@@ -187,47 +250,30 @@
 special characters</t>
   </si>
   <si>
-    <t>STR99_SP_07</t>
-  </si>
-  <si>
-    <t>check whether the name field accepts characters 
-upto 40</t>
+    <t>STR99_SP_06</t>
+  </si>
+  <si>
+    <t>check whether the mobile number field accepts 
+numbers upto 12 digits</t>
   </si>
   <si>
     <t>1.open the application 
 2.click on user 
-3.click on signin 
-4.click on register now
-6.enter characters more than 40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sadsfdfgfgryuyiuivbvnbb
-vnghhfgdfgdcvcvcvccvcb
-</t>
-  </si>
-  <si>
-    <t>should display an error message while 
-characters exceed 40</t>
-  </si>
-  <si>
-    <t>not displaying error message</t>
-  </si>
-  <si>
-    <t>STR99_SP_08</t>
-  </si>
-  <si>
-    <t>check whether the mobile number field accepts 
-numbers upto 12 digits</t>
-  </si>
-  <si>
-    <t>999775533456576567</t>
+3.click on register now
+4.enter mobile number(16 digits)</t>
+  </si>
+  <si>
+    <t>mobile number(16 digits)</t>
   </si>
   <si>
     <t>should display an error message when mobile
  number exceeds 12 digits</t>
   </si>
   <si>
-    <t>STR99_SP_09</t>
+    <t>not displaying error message</t>
+  </si>
+  <si>
+    <t>STR99_SP_07</t>
   </si>
   <si>
     <t>check the email id field without @ sign and the 
@@ -236,20 +282,20 @@
   <si>
     <t>1.open the application 
 2.click on user 
-3.click on signin 
-4.click on register now
-5.enter the name
-6.enter mobile number
-7.enter emailid without @domainname</t>
-  </si>
-  <si>
-    <t>asdffgg</t>
+3.click on register now
+4.enter the name
+5.enter mobile number
+6.enter emailid without @domainname</t>
+  </si>
+  <si>
+    <t>username(not @ and 
+domain name)</t>
   </si>
   <si>
     <t>should display an error validation message</t>
   </si>
   <si>
-    <t>STR99_SP_10</t>
+    <t>STR99_SP_08</t>
   </si>
   <si>
     <t>verify that a blank value is not allowed in the 
@@ -258,19 +304,18 @@
   <si>
     <t xml:space="preserve">1.open the application 
 2.click on user 
-3.click on signin 
-4.click on register now
-5.enter the name
-6.enter mobile number
-7.enter emailid without @domainname
-8.password field gives a blank value
+3.click on register now
+4.enter the name
+5.enter mobile number
+6.enter emailid without @domainname
+7.password field gives a blank value
 </t>
   </si>
   <si>
     <t>Shows error validation message</t>
   </si>
   <si>
-    <t>STR99_SP_11</t>
+    <t>STR99_SP_09</t>
   </si>
   <si>
     <t>verify that password is visible in the form of 
@@ -288,7 +333,7 @@
 </t>
   </si>
   <si>
-    <t>A4tty#45</t>
+    <t>password</t>
   </si>
   <si>
     <t>password should be visible in the form of 
@@ -299,19 +344,20 @@
 asterisks</t>
   </si>
   <si>
+    <t>STR99_SP_10</t>
+  </si>
+  <si>
     <t>verify that show password button is present next 
 to the password textbox</t>
   </si>
   <si>
-    <t xml:space="preserve">1.open the application
-2.click on user
-3.click on signin </t>
-  </si>
-  <si>
     <t>show password button should be present</t>
   </si>
   <si>
     <t>button is not present</t>
+  </si>
+  <si>
+    <t>STR99_SP_11</t>
   </si>
   <si>
     <t>check whether the checkbox providing for 
@@ -321,19 +367,21 @@
   <si>
     <t>1.open the application 
 2.click on user 
-3.click on signin 
-4.click on register now
-5.enter the name
-6.enter mobile number
-7.enter emailid without @domainname
-8.enter the password
-9.click on checkbox</t>
+3.click on register now
+4.enter the name
+5.enter mobile number
+6.enter emailid without @domainname
+7.enter the password
+8.click on checkbox</t>
   </si>
   <si>
     <t>checkbox should be clickable</t>
   </si>
   <si>
     <t>checkbox is clickable</t>
+  </si>
+  <si>
+    <t>STR99_SP_12</t>
   </si>
   <si>
     <t xml:space="preserve">verify that clicking the hyperlink terms and 
@@ -342,14 +390,13 @@
   <si>
     <t>1.open the application 
 2.click on user 
-3.click on signin 
-4.click on register now
-5.enter the name
-6.enter mobile number
-7.enter emailid without @domainname
-8.enter the password
-9.click on checkbox
-10.click on terms and conditions</t>
+3.click on register now
+4.enter the name
+5.enter mobile number
+6.enter emailid without @domainname
+7.enter the password
+8.click on checkbox
+9.click on terms and conditions</t>
   </si>
   <si>
     <t>clicking the hyperlink should redirect to the 
@@ -360,14 +407,11 @@
 the corresponding page</t>
   </si>
   <si>
+    <t>STR99_SP_13</t>
+  </si>
+  <si>
     <t>verify that clicking submit button after entering all 
 the required fields, submits the data to the server</t>
-  </si>
-  <si>
-    <t>1.open the application 
-2.click on user 
-3.click on signin 
-4.click on register now</t>
   </si>
   <si>
     <t>should submit data to the server by clicking 
@@ -390,13 +434,10 @@
     <t xml:space="preserve">1.open the application
 2.click on user
 3.click on signin
-4.enter the username
+4.click on username
 </t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
     <t>Username textbox should be enabled</t>
   </si>
   <si>
@@ -407,6 +448,47 @@
   </si>
   <si>
     <t>check whether password textbox is enabled</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.click on user
+3.click on signin 
+4.click on password</t>
+  </si>
+  <si>
+    <t>Password textbox should be clickable</t>
+  </si>
+  <si>
+    <t>password textbox is clickable</t>
+  </si>
+  <si>
+    <t>STR99_LP_03</t>
+  </si>
+  <si>
+    <t>verify that login button is clickable or not</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.click on user
+3.click on signin 
+4.click on login button</t>
+  </si>
+  <si>
+    <t>username
+password</t>
+  </si>
+  <si>
+    <t>login button should be working</t>
+  </si>
+  <si>
+    <t>login button is clickable</t>
+  </si>
+  <si>
+    <t>STR99_LP_04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify that password is encrypted when the user 
+enters password in password textbox </t>
   </si>
   <si>
     <t>1.open the application
@@ -415,25 +497,6 @@
 4.enter the password</t>
   </si>
   <si>
-    <t>fggj</t>
-  </si>
-  <si>
-    <t>Password textbox should be clickable</t>
-  </si>
-  <si>
-    <t>password textbox is clickable</t>
-  </si>
-  <si>
-    <t>STR99_LP_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">verify that password is encrypted when the user 
-enters password in password textbox </t>
-  </si>
-  <si>
-    <t>agfg</t>
-  </si>
-  <si>
     <t>password should be encrypted when 
 user enters password in textbox</t>
   </si>
@@ -444,41 +507,960 @@
     <t>STR99_LP_05</t>
   </si>
   <si>
+    <t>check that when the user clicks on login button by 
+entering invalid username and valid password</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.click on user
+3.click on signin
+4.enter invalid username and valid 
+password 
+5.click on login button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>error validation message should be 
+displayed</t>
+  </si>
+  <si>
     <t>STR99_LP_06</t>
   </si>
   <si>
+    <t>check that when the user clicks on login button by 
+entering valid username and invalid password</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.click on user
+3.click on signin
+4.enter valid username and invalid 
+password 
+5.click on login button</t>
+  </si>
+  <si>
+    <t>error validation message should be 
+displayed</t>
+  </si>
+  <si>
     <t>STR99_LP_07</t>
   </si>
   <si>
+    <t>verify if the forgot password option is shown 
+right to the password field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.open the application
+2.click on user
+3.click on signin
+</t>
+  </si>
+  <si>
+    <t>forgot password option should be there</t>
+  </si>
+  <si>
+    <t>forgot password option is there</t>
+  </si>
+  <si>
     <t>STR99_LP_08</t>
   </si>
   <si>
+    <t>check if the forgot password link is directed to the
+right page i.e. forgot password page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.open the application
+2.click on user
+3.click on signin
+4.click on forgot password link
+</t>
+  </si>
+  <si>
+    <t>forgot password link should directed to 
+the right page</t>
+  </si>
+  <si>
+    <t>forgot password link is redirected
+ to the right page</t>
+  </si>
+  <si>
     <t>STR99_LP_09</t>
   </si>
   <si>
+    <t>verify that the link to change the password is 
+sent to the user's emailid only</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.click on user
+3.click on signin
+4.click on forgot password link
+5.enter mailid
+6.click on submit</t>
+  </si>
+  <si>
+    <t>link to change the password should be 
+sent to the user mailid</t>
+  </si>
+  <si>
+    <t>link is not sent to the user's mailid</t>
+  </si>
+  <si>
     <t>STR99_LP_10</t>
   </si>
   <si>
+    <t xml:space="preserve">verify that login through social media account is 
+possible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.open the application
+2.click on user
+3.click on signin
+4.click on fb icon
+</t>
+  </si>
+  <si>
+    <t>login should be possible through 
+fb account</t>
+  </si>
+  <si>
+    <t>login is not possible</t>
+  </si>
+  <si>
     <t>STR99_LP_11</t>
   </si>
   <si>
-    <t>STR99_LP_12</t>
-  </si>
-  <si>
-    <t>STR99_LP_13</t>
-  </si>
-  <si>
-    <t>STR99_LP_14</t>
+    <t>check that click on register link directed to the 
+right page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.open the application
+2.click on user
+3.click on signin
+4.click on register
+</t>
+  </si>
+  <si>
+    <t>register link should directed to its 
+corresponding page</t>
+  </si>
+  <si>
+    <t>link is directed to its right page</t>
   </si>
   <si>
     <t>Home Page</t>
+  </si>
+  <si>
+    <t>STR99_HP_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify that homepage is displayed on after login </t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password
+3.click on login button</t>
+  </si>
+  <si>
+    <t>home page should be displayed after successful 
+login</t>
+  </si>
+  <si>
+    <t>home page is displayed after the login</t>
+  </si>
+  <si>
+    <t>STR99_HP_02</t>
+  </si>
+  <si>
+    <t>verify that userprofile section is present on homepage</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password 
+3.click on login button</t>
+  </si>
+  <si>
+    <t>user profile section should be displayed on 
+homepage</t>
+  </si>
+  <si>
+    <t>user profile is present on homepage</t>
+  </si>
+  <si>
+    <t>STR99_HP_03</t>
+  </si>
+  <si>
+    <t>verify that the cart icon is present in the home page</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password 
+3.click on login button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shopping cart icon should be present </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shopping cart icon is present in homepage </t>
+  </si>
+  <si>
+    <t>STR99_HP_04</t>
+  </si>
+  <si>
+    <t>verify that featured products are displayed on home 
+page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">featured products should be displayed on 
+homepage 
+</t>
+  </si>
+  <si>
+    <t>featured products are displayed on homepage</t>
+  </si>
+  <si>
+    <t>STR99_HP_05</t>
+  </si>
+  <si>
+    <t>check the alignment of the homepage</t>
+  </si>
+  <si>
+    <t>homepage should be properly aligned</t>
+  </si>
+  <si>
+    <t>homepage is properly aligned</t>
+  </si>
+  <si>
+    <t>STR99_HP_06</t>
+  </si>
+  <si>
+    <t>check the search functionality is present on 
+homepage</t>
+  </si>
+  <si>
+    <t>search functionality should be present on 
+homepage</t>
+  </si>
+  <si>
+    <t>search functionality is present on homepage</t>
+  </si>
+  <si>
+    <t>STR99_HP_07</t>
+  </si>
+  <si>
+    <t>verify that products displayed on homepage are 
+clickable or not</t>
+  </si>
+  <si>
+    <t>products on homepage should be clickable</t>
+  </si>
+  <si>
+    <t>products on homepage is clickable</t>
+  </si>
+  <si>
+    <t>STR99_HP_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify that when user clicks on a product, it will 
+redirected to the product specification page </t>
+  </si>
+  <si>
+    <t>click on product should redirected to product 
+specification page</t>
+  </si>
+  <si>
+    <t>click on product is redirected to the product 
+specification page</t>
+  </si>
+  <si>
+    <t>STR99_HP_09</t>
+  </si>
+  <si>
+    <t>verify that products displayed on homepage are 
+categorized</t>
+  </si>
+  <si>
+    <t>products on homepage should be categorized</t>
+  </si>
+  <si>
+    <t>products on homepage are categorized</t>
+  </si>
+  <si>
+    <t>STR99_HP_10</t>
+  </si>
+  <si>
+    <t>check whether the share icon in the homepage is 
+working</t>
+  </si>
+  <si>
+    <t>share icon should be in working mode</t>
+  </si>
+  <si>
+    <t>share icon is working properly</t>
+  </si>
+  <si>
+    <t>Search Functionality</t>
+  </si>
+  <si>
+    <t>STR99_SF_01</t>
+  </si>
+  <si>
+    <t>verify that search field is present and aligned</t>
+  </si>
+  <si>
+    <t>search field should be present and aligned</t>
+  </si>
+  <si>
+    <t>search field is present and properly aligned</t>
+  </si>
+  <si>
+    <t>STR99_SF_02</t>
+  </si>
+  <si>
+    <t>check the cross or cancel option to clear the search 
+keyword is there</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password
+3.click on login button
+4.click on search field</t>
+  </si>
+  <si>
+    <t>cross option to clear the search keyword 
+should be present</t>
+  </si>
+  <si>
+    <t>cross option is not present</t>
+  </si>
+  <si>
+    <t>STR99_SF_03</t>
+  </si>
+  <si>
+    <t>verify that after entering the search text and press
+ enter key, the search should be performed</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password
+3.click on login button
+4.enter the search text
+5.press enter</t>
+  </si>
+  <si>
+    <t>search text</t>
+  </si>
+  <si>
+    <t>search on the product should be performed</t>
+  </si>
+  <si>
+    <t>search is performed</t>
+  </si>
+  <si>
+    <t>STR99_SF_04</t>
+  </si>
+  <si>
+    <t>verify that the search result is as per the search 
+query</t>
+  </si>
+  <si>
+    <t>search result should be as per the search 
+query</t>
+  </si>
+  <si>
+    <t>search result is same as the search query</t>
+  </si>
+  <si>
+    <t>STR99_SF_05</t>
+  </si>
+  <si>
+    <t>check whether the user should be able to search 
+based on brand name</t>
+  </si>
+  <si>
+    <t>user should be able to search based on 
+brand name</t>
+  </si>
+  <si>
+    <t>user is not able to search by giving brand name</t>
+  </si>
+  <si>
+    <t>STR99_SF_06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check the response when without entering anything 
+and press enter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.open the application
+2.enter username and password
+3.click on login button
+</t>
+  </si>
+  <si>
+    <t>no product found response should be 
+displayed</t>
+  </si>
+  <si>
+    <t>no product found response is displayed</t>
+  </si>
+  <si>
+    <t>STR99_SF_07</t>
+  </si>
+  <si>
+    <t>check whether the filter should be present for filtering 
+the search results based on price, brand, etc</t>
+  </si>
+  <si>
+    <t>filter should be present in the search results</t>
+  </si>
+  <si>
+    <t>filter is not in the search results</t>
+  </si>
+  <si>
+    <t>STR99_SF_08</t>
+  </si>
+  <si>
+    <t>verify that when entering any single character 
+it should show a list of product suggestions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.open the application
+2.enter username and password
+3.click on login button
+4.enter the search text
+</t>
+  </si>
+  <si>
+    <t>list of product suggestion should be shown</t>
+  </si>
+  <si>
+    <t>product suggestions are not displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>Product Details</t>
+  </si>
+  <si>
+    <t>STR99_PD_01</t>
+  </si>
+  <si>
+    <t>check whether the image of product is displayed 
+correctly</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password
+3.click on login button
+4.click on a product in the home page</t>
+  </si>
+  <si>
+    <t>product image should be displayed correctly</t>
+  </si>
+  <si>
+    <t>the image of product is displayed correctly</t>
+  </si>
+  <si>
+    <t>STR99_PD_02</t>
+  </si>
+  <si>
+    <t>check that the zoomed view of the image is availabe</t>
+  </si>
+  <si>
+    <t>zoomed view should be available</t>
+  </si>
+  <si>
+    <t>zooming view is not available</t>
+  </si>
+  <si>
+    <t>STR99_PD_03</t>
+  </si>
+  <si>
+    <t>verify that the price of product is displayed</t>
+  </si>
+  <si>
+    <t>product price should be displayed</t>
+  </si>
+  <si>
+    <t>product price is mentioned</t>
+  </si>
+  <si>
+    <t>STR99_PD_04</t>
+  </si>
+  <si>
+    <t>verify the product reviews are mentioned below the 
+product</t>
+  </si>
+  <si>
+    <t>product reviews should be mentioned</t>
+  </si>
+  <si>
+    <t>product reviews are mentioned</t>
+  </si>
+  <si>
+    <t>STR99_PD_05</t>
+  </si>
+  <si>
+    <t>check whether the customer is able to add their 
+feedback in the review section</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password
+3.click on login button
+4.click on a product in the home page
+5.click on reviews</t>
+  </si>
+  <si>
+    <t>customer should be able to give their feedback</t>
+  </si>
+  <si>
+    <t>customer can give their feedback</t>
+  </si>
+  <si>
+    <t>STR99_PD_06</t>
+  </si>
+  <si>
+    <t>check the product specifications are present</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password
+3.click on login button
+4.click on a product in the home page
+5.click on additional information</t>
+  </si>
+  <si>
+    <t>product features should be mentioned</t>
+  </si>
+  <si>
+    <t>product specifications are not displayed in additional
+ information</t>
+  </si>
+  <si>
+    <t>STR99_PD_07</t>
+  </si>
+  <si>
+    <t>verify that all the product variations are displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">should display product variations </t>
+  </si>
+  <si>
+    <t>product variations are not present</t>
+  </si>
+  <si>
+    <t>STR99_PD_08</t>
+  </si>
+  <si>
+    <t>check whether the wishlist icon is present and 
+lickable</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password
+3.click on login button
+4.click on a product in the home page
+5.click on wishlist icon</t>
+  </si>
+  <si>
+    <t>wishlist icon should be displayed and added  to
+wishlist by clicking on it</t>
+  </si>
+  <si>
+    <t>wishlist icon is present and clickable</t>
+  </si>
+  <si>
+    <t>STR99_PD_09</t>
+  </si>
+  <si>
+    <t>check whether the product stock details are 
+mentioned</t>
+  </si>
+  <si>
+    <t>product stock details should be mentioned</t>
+  </si>
+  <si>
+    <t>product stock details are not mentioned</t>
+  </si>
+  <si>
+    <t>STR99_PD_10</t>
+  </si>
+  <si>
+    <t>verify that the product suggestions related to the 
+product are displayed</t>
+  </si>
+  <si>
+    <t>product suggestions should be displayed</t>
+  </si>
+  <si>
+    <t>product suggestions are not available for the product</t>
+  </si>
+  <si>
+    <t>STR99_PD_11</t>
+  </si>
+  <si>
+    <t>verify that offer details are added in the product 
+details page</t>
+  </si>
+  <si>
+    <t>offer details should be included in the product 
+details page</t>
+  </si>
+  <si>
+    <t>offer details are not included</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cart </t>
+  </si>
+  <si>
+    <t>STR99_CP_01</t>
+  </si>
+  <si>
+    <t>check that the add to cart button is clickable or not</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password
+3.click on login button
+4.click on cart icon</t>
+  </si>
+  <si>
+    <t>cart icon should be clickable</t>
+  </si>
+  <si>
+    <t>cart icon is clickable</t>
+  </si>
+  <si>
+    <t>STR99_CP_02</t>
+  </si>
+  <si>
+    <t>check that the user can add products to the cart</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password
+3.click on login button
+4.click on a product displayed on home page
+5.click on cart icon</t>
+  </si>
+  <si>
+    <t>the product should be added to the cart</t>
+  </si>
+  <si>
+    <t>the product is added to the cart</t>
+  </si>
+  <si>
+    <t>STR99_CP_03</t>
+  </si>
+  <si>
+    <t>verify success message is displayed when a product is 
+added to the cart</t>
+  </si>
+  <si>
+    <t>success message should be displayed when a 
+product is added to the cart</t>
+  </si>
+  <si>
+    <t>success message got displayed</t>
+  </si>
+  <si>
+    <t>STR99_CP_04</t>
+  </si>
+  <si>
+    <t>check that the added item is displayed in the cart</t>
+  </si>
+  <si>
+    <t>the added item should be displayed in the cart</t>
+  </si>
+  <si>
+    <t>added item is displayed in the cart</t>
+  </si>
+  <si>
+    <t>STR99_CP_05</t>
+  </si>
+  <si>
+    <t>verify that the user should be able to continue shopping 
+after adding items to the cart</t>
+  </si>
+  <si>
+    <t>user should be able to continue shopping 
+after adding items to the cart</t>
+  </si>
+  <si>
+    <t>user is able to continue shopping 
+after adding items to the cart</t>
+  </si>
+  <si>
+    <t>STR99_CP_06</t>
+  </si>
+  <si>
+    <t>verify that adding new product to the cart and count is 
+increasing</t>
+  </si>
+  <si>
+    <t>count should be increasing by adding new 
+product to the cart</t>
+  </si>
+  <si>
+    <t>count gets increasing when adding new product to 
+the cart</t>
+  </si>
+  <si>
+    <t>STR99_CP_07</t>
+  </si>
+  <si>
+    <t>verify that user click on remove from cart button the item 
+should be removed from cart</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password
+3.click on login button
+4.click on cart icon
+5.click on remove button</t>
+  </si>
+  <si>
+    <t>the item should should be removed from cart</t>
+  </si>
+  <si>
+    <t>the item gets removed</t>
+  </si>
+  <si>
+    <t>STR99_CP_08</t>
+  </si>
+  <si>
+    <t>verify the sequential order of the items as per the items 
+added to the cart</t>
+  </si>
+  <si>
+    <t>sequence order should be same as per the 
+items added to the cart</t>
+  </si>
+  <si>
+    <t>sequence order is as per the items added to the 
+cart</t>
+  </si>
+  <si>
+    <t>STR99_CP_09</t>
+  </si>
+  <si>
+    <t>verify that item quantity should be increased when user 
+add same items to the cart again</t>
+  </si>
+  <si>
+    <t>quantity should be increased if user add same
+ items to the cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quantity gets increased </t>
+  </si>
+  <si>
+    <t>STR99_CP_10</t>
+  </si>
+  <si>
+    <t>verify that the amount of all items is displayed to the user</t>
+  </si>
+  <si>
+    <t>the total  amount should be displayed to the 
+user</t>
+  </si>
+  <si>
+    <t>total amount gets displayed</t>
+  </si>
+  <si>
+    <t>STR99_CP_11</t>
+  </si>
+  <si>
+    <t>check whether the amount gets changed by adding or 
+removing the items in the cart</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password
+3.click on login button
+4.click on a product displayed on home page
+5.click on cart icon</t>
+  </si>
+  <si>
+    <t>amount gets changed by making changes in the
+cart items</t>
+  </si>
+  <si>
+    <t>total amount gets changed by making changes in
+ the cart items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify that the user should be able to apply coupons </t>
+  </si>
+  <si>
+    <t>user should be able to apply coupons</t>
+  </si>
+  <si>
+    <t>user not able to apply  coupons in the checkout</t>
+  </si>
+  <si>
+    <t>STR99_CP_12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify the items in cart be present when user 
+logout  and login again </t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password
+3.click on login button
+4.click on a product displayed on home page
+5.click on cart icon
+6.click on logout
+7.login again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the items in cart should be present when user 
+logout  and login again </t>
+  </si>
+  <si>
+    <t>the items are there in the cart when user logged 
+out and login again</t>
+  </si>
+  <si>
+    <t>Checkout Page/Payment Page</t>
+  </si>
+  <si>
+    <t>STR99_COP_01</t>
+  </si>
+  <si>
+    <t>check that payment options applicable for the
+order should be displayed at checkout</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password
+3.click on login button
+4.click on cart icon
+5.click on checkout page</t>
+  </si>
+  <si>
+    <t>checkout page should be displayed with payment
+options</t>
+  </si>
+  <si>
+    <t>payment options are mentioned in the checkout 
+page</t>
+  </si>
+  <si>
+    <t>STR99_COP_02</t>
+  </si>
+  <si>
+    <t>verify that delivery details of items should be 
+displayed at checkout page</t>
+  </si>
+  <si>
+    <t>delivery details should be mentioned in the 
+checkout page</t>
+  </si>
+  <si>
+    <t>delivery details are shown in the checkout page</t>
+  </si>
+  <si>
+    <t>STR99_COP_03</t>
+  </si>
+  <si>
+    <t>check whether the user get order details by 
+message or email</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password
+3.click on login button
+4.click on cart icon
+5.click on checkout page</t>
+  </si>
+  <si>
+    <t>user should get order details by email or message</t>
+  </si>
+  <si>
+    <t>order details not sent to the user by mail or 
+message</t>
+  </si>
+  <si>
+    <t>STR99_COP_04</t>
+  </si>
+  <si>
+    <t>STR99_COP_05</t>
+  </si>
+  <si>
+    <t>STR99_COP_06</t>
+  </si>
+  <si>
+    <t>STR99_COP_07</t>
+  </si>
+  <si>
+    <t>STR99_COP_08</t>
+  </si>
+  <si>
+    <t>STR99_COP_09</t>
+  </si>
+  <si>
+    <t>STR99_COP_10</t>
+  </si>
+  <si>
+    <t>STR99_COP_11</t>
+  </si>
+  <si>
+    <t>Version No:1.2.47</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>OS version:13</t>
+  </si>
+  <si>
+    <t>Module Name</t>
+  </si>
+  <si>
+    <t>Total defects</t>
+  </si>
+  <si>
+    <t>Signup page</t>
+  </si>
+  <si>
+    <t>Login page</t>
+  </si>
+  <si>
+    <t>Home page</t>
+  </si>
+  <si>
+    <t>Cart</t>
+  </si>
+  <si>
+    <t>Checkout page</t>
+  </si>
+  <si>
+    <t>My orders Page</t>
+  </si>
+  <si>
+    <t>Tests Passed</t>
+  </si>
+  <si>
+    <t>Tests Failed</t>
+  </si>
+  <si>
+    <t>Total Tests</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -488,7 +1470,7 @@
     <font>
       <b/>
       <sz val="12.0"/>
-      <color theme="1"/>
+      <color rgb="FFFF00FF"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -506,6 +1488,26 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -528,7 +1530,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -544,6 +1546,21 @@
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -553,6 +1570,14 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -581,6 +1606,10 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -788,13 +1817,12 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.75"/>
-    <col customWidth="1" min="2" max="2" width="37.63"/>
-    <col customWidth="1" min="3" max="3" width="32.63"/>
-    <col customWidth="1" min="4" max="4" width="20.0"/>
-    <col customWidth="1" min="5" max="5" width="35.13"/>
-    <col customWidth="1" min="6" max="6" width="28.38"/>
-    <col customWidth="1" min="7" max="7" width="10.38"/>
+    <col customWidth="1" min="1" max="1" width="13.63"/>
+    <col customWidth="1" min="2" max="2" width="38.88"/>
+    <col customWidth="1" min="3" max="3" width="37.0"/>
+    <col customWidth="1" min="4" max="4" width="15.38"/>
+    <col customWidth="1" min="5" max="5" width="40.13"/>
+    <col customWidth="1" min="6" max="6" width="37.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -806,7 +1834,8 @@
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -814,7 +1843,8 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
@@ -822,342 +1852,420 @@
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="G6" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G7" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G9" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="A12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="A5:G5"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="36.13"/>
+    <col customWidth="1" min="2" max="2" width="43.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B7" s="8">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="8">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="8">
+        <v>6.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B11" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B12" s="9"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="A13" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B13" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A4:G4"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="19.63"/>
+    <col customWidth="1" min="2" max="2" width="13.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="D3" s="8">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B4" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="D4" s="8">
+        <v>13.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="C5" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="D5" s="8">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B6" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="C6" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="D6" s="8">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="C7" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="D7" s="8">
+        <v>8.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="C8" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="D8" s="8">
+        <v>11.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="B9" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="D9" s="8">
+        <v>12.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="8" t="s">
+        <v>382</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1173,19 +2281,21 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="15.0"/>
-    <col customWidth="1" min="2" max="2" width="37.25"/>
-    <col customWidth="1" min="3" max="3" width="30.25"/>
-    <col customWidth="1" min="4" max="4" width="16.13"/>
-    <col customWidth="1" min="5" max="5" width="30.88"/>
-    <col customWidth="1" min="6" max="6" width="23.13"/>
+    <col customWidth="1" min="1" max="1" width="15.75"/>
+    <col customWidth="1" min="2" max="2" width="37.63"/>
+    <col customWidth="1" min="3" max="3" width="33.38"/>
+    <col customWidth="1" min="4" max="4" width="19.0"/>
+    <col customWidth="1" min="5" max="5" width="35.13"/>
+    <col customWidth="1" min="6" max="6" width="28.38"/>
+    <col customWidth="1" min="7" max="7" width="10.38"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1193,165 +2303,332 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>5</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>18</v>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="s">
-        <v>92</v>
+        <v>38</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>95</v>
+        <v>39</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="s">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>94</v>
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="s">
-        <v>104</v>
+        <v>55</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="s">
-        <v>105</v>
+        <v>59</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="s">
-        <v>106</v>
+        <v>65</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="s">
-        <v>107</v>
+        <v>71</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="s">
-        <v>108</v>
+        <v>76</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="s">
-        <v>109</v>
+        <v>80</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="s">
-        <v>110</v>
+        <v>86</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="s">
-        <v>111</v>
+        <v>90</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="s">
-        <v>112</v>
+        <v>95</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:G3"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A4:G4"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1368,18 +2645,19 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="15.0"/>
-    <col customWidth="1" min="2" max="2" width="33.0"/>
-    <col customWidth="1" min="3" max="3" width="35.38"/>
-    <col customWidth="1" min="4" max="4" width="17.0"/>
-    <col customWidth="1" min="5" max="5" width="38.0"/>
-    <col customWidth="1" min="6" max="6" width="39.75"/>
+    <col customWidth="1" min="2" max="2" width="37.25"/>
+    <col customWidth="1" min="3" max="3" width="30.25"/>
+    <col customWidth="1" min="4" max="4" width="16.13"/>
+    <col customWidth="1" min="5" max="5" width="30.88"/>
+    <col customWidth="1" min="6" max="6" width="25.75"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1387,45 +2665,288 @@
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>113</v>
+        <v>5</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="A3:G3"/>
+  <mergeCells count="7">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A4:G4"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1440,7 +2961,283 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="15.0"/>
+    <col customWidth="1" min="2" max="2" width="41.38"/>
+    <col customWidth="1" min="3" max="3" width="33.63"/>
+    <col customWidth="1" min="4" max="4" width="17.0"/>
+    <col customWidth="1" min="5" max="5" width="38.0"/>
+    <col customWidth="1" min="6" max="6" width="39.75"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A4:G4"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1449,16 +3246,262 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
-    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="40.38"/>
+    <col customWidth="1" min="3" max="3" width="31.5"/>
+    <col customWidth="1" min="4" max="4" width="17.0"/>
+    <col customWidth="1" min="5" max="5" width="33.75"/>
+    <col customWidth="1" min="6" max="6" width="40.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A4:G4"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1472,7 +3515,300 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="13.0"/>
+    <col customWidth="1" min="2" max="2" width="39.0"/>
+    <col customWidth="1" min="3" max="3" width="34.38"/>
+    <col customWidth="1" min="4" max="4" width="16.13"/>
+    <col customWidth="1" min="5" max="5" width="40.38"/>
+    <col customWidth="1" min="6" max="6" width="42.63"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A4:G4"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1481,12 +3817,348 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="43.25"/>
+    <col customWidth="1" min="3" max="3" width="40.13"/>
+    <col customWidth="1" min="4" max="4" width="16.5"/>
+    <col customWidth="1" min="5" max="5" width="36.38"/>
+    <col customWidth="1" min="6" max="6" width="38.38"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A4:G4"/>
+  </mergeCells>
+  <printOptions gridLines="1" horizontalCentered="1"/>
+  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup fitToHeight="0" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -1500,6 +4172,193 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="13.25"/>
+    <col customWidth="1" min="2" max="2" width="37.0"/>
+    <col customWidth="1" min="3" max="3" width="38.5"/>
+    <col customWidth="1" min="4" max="4" width="18.0"/>
+    <col customWidth="1" min="5" max="5" width="37.75"/>
+    <col customWidth="1" min="6" max="6" width="36.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A4:G4"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Testcase.xlsx
+++ b/Testcase.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="437">
   <si>
     <t>STORE 99</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Verified by:</t>
   </si>
   <si>
-    <t>Tested by:</t>
+    <t>Tested by:Aiswarya</t>
   </si>
   <si>
     <t>Date:</t>
@@ -1336,8 +1336,8 @@
     <t>STR99_COP_01</t>
   </si>
   <si>
-    <t>check that payment options applicable for the
-order should be displayed at checkout</t>
+    <t>check users access to the checkout page only 
+after adding the product to the cart</t>
   </si>
   <si>
     <t>1.open the application
@@ -1347,33 +1347,19 @@
 5.click on checkout page</t>
   </si>
   <si>
-    <t>checkout page should be displayed with payment
-options</t>
-  </si>
-  <si>
-    <t>payment options are mentioned in the checkout 
-page</t>
+    <t>checkout page should accessible only after adding
+ the product to the cart</t>
+  </si>
+  <si>
+    <t>user get access to the checkout page only after
+ adding the product to the cart</t>
   </si>
   <si>
     <t>STR99_COP_02</t>
   </si>
   <si>
-    <t>verify that delivery details of items should be 
-displayed at checkout page</t>
-  </si>
-  <si>
-    <t>delivery details should be mentioned in the 
-checkout page</t>
-  </si>
-  <si>
-    <t>delivery details are shown in the checkout page</t>
-  </si>
-  <si>
-    <t>STR99_COP_03</t>
-  </si>
-  <si>
-    <t>check whether the user get order details by 
-message or email</t>
+    <t>check whether the back/next button is available in
+ the checkout address page</t>
   </si>
   <si>
     <t>1.open the application
@@ -1383,6 +1369,75 @@
 5.click on checkout page</t>
   </si>
   <si>
+    <t>back/next button should available in the checkout 
+address page</t>
+  </si>
+  <si>
+    <t>back/next button is available in the checkout 
+address page</t>
+  </si>
+  <si>
+    <t>STR99_COP_03</t>
+  </si>
+  <si>
+    <t>check whether error message displayed when the
+ user fills invalid input details in the mandatory field</t>
+  </si>
+  <si>
+    <t>error message should displayed on filling invalid 
+input details</t>
+  </si>
+  <si>
+    <t>STR99_COP_04</t>
+  </si>
+  <si>
+    <t>verify any error message is displayed when the user
+leaves the mandatory field blank</t>
+  </si>
+  <si>
+    <t>error message should displayed on leaving any 
+mandatory field blank</t>
+  </si>
+  <si>
+    <t>error message displayed</t>
+  </si>
+  <si>
+    <t>STR99_COP_05</t>
+  </si>
+  <si>
+    <t>check that payment options applicable for the
+order should be displayed at checkout</t>
+  </si>
+  <si>
+    <t>checkout page should be displayed with payment
+options</t>
+  </si>
+  <si>
+    <t>payment options are mentioned in the checkout 
+page</t>
+  </si>
+  <si>
+    <t>STR99_COP_06</t>
+  </si>
+  <si>
+    <t>verify that delivery details of items should be 
+displayed at checkout page</t>
+  </si>
+  <si>
+    <t>delivery details should be mentioned in the 
+checkout page</t>
+  </si>
+  <si>
+    <t>delivery details are shown in the checkout page</t>
+  </si>
+  <si>
+    <t>STR99_COP_07</t>
+  </si>
+  <si>
+    <t>check whether the user get order details by 
+message or email</t>
+  </si>
+  <si>
     <t>user should get order details by email or message</t>
   </si>
   <si>
@@ -1390,28 +1445,170 @@
 message</t>
   </si>
   <si>
-    <t>STR99_COP_04</t>
-  </si>
-  <si>
-    <t>STR99_COP_05</t>
-  </si>
-  <si>
-    <t>STR99_COP_06</t>
-  </si>
-  <si>
-    <t>STR99_COP_07</t>
-  </si>
-  <si>
     <t>STR99_COP_08</t>
   </si>
   <si>
+    <t>check the user can avail the payment options 
+such as credit card, debit card ,COD ,etc</t>
+  </si>
+  <si>
+    <t>credit card,debit card ,etc payment options should 
+avilable to the user</t>
+  </si>
+  <si>
+    <t>the user can avail the payment options 
+like credit card, debit card ,COD ,etc</t>
+  </si>
+  <si>
     <t>STR99_COP_09</t>
   </si>
   <si>
+    <t>check error message displayed when invalid details 
+are filled in the mandatory field of the payment page</t>
+  </si>
+  <si>
+    <t>error message should displayed when invalid details 
+are filled in the mandatory field of the payment page</t>
+  </si>
+  <si>
     <t>STR99_COP_10</t>
   </si>
   <si>
+    <t>verify that user details should be displayed on 
+payment page for registered customers</t>
+  </si>
+  <si>
+    <t>user details should be displayed on 
+payment page for registered customers</t>
+  </si>
+  <si>
+    <t>user details are displayed</t>
+  </si>
+  <si>
     <t>STR99_COP_11</t>
+  </si>
+  <si>
+    <t>verify that the user is redirected to the order page 
+after successful order processing</t>
+  </si>
+  <si>
+    <t>the user should be redirected to the order page after 
+successful order processing</t>
+  </si>
+  <si>
+    <t>the user is redirected to the order page after 
+successful order processing</t>
+  </si>
+  <si>
+    <t>STR99_COP_12</t>
+  </si>
+  <si>
+    <t>check that on successful payment email or message 
+should be delivered to customer along with unique 
+order number</t>
+  </si>
+  <si>
+    <t>successful payment email or message 
+should be delivered to customer along with unique 
+order number</t>
+  </si>
+  <si>
+    <t>email or message not delivered to the customer</t>
+  </si>
+  <si>
+    <t>Orders Page</t>
+  </si>
+  <si>
+    <t>STR99_OP_01</t>
+  </si>
+  <si>
+    <t>verify that the user is able to track the order on my 
+orders page</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password
+3.click on login button
+4.click on my orders</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user should be able to track the order
+</t>
+  </si>
+  <si>
+    <t>order tracking is not possible</t>
+  </si>
+  <si>
+    <t>STR99_OP_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verify that the user is able to change the delivery date 
+and time </t>
+  </si>
+  <si>
+    <t>user should be able to change the delivery date 
+and time</t>
+  </si>
+  <si>
+    <t>changing the delivery date and time is not
+ possible</t>
+  </si>
+  <si>
+    <t>STR99_OP_03</t>
+  </si>
+  <si>
+    <t>check that the user can cancel the order which he/she 
+placed</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password
+3.click on login button
+4.click on my orders
+5.click on cancel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">user should be able to cancel the order </t>
+  </si>
+  <si>
+    <t>cancellation of order is possible</t>
+  </si>
+  <si>
+    <t>STR99_OP_04</t>
+  </si>
+  <si>
+    <t>check that the user gets confirmation message on 
+cancelling the order</t>
+  </si>
+  <si>
+    <t>user should get a message on order cancelling</t>
+  </si>
+  <si>
+    <t>order cancellation message delivered to 
+customer upon cancel order</t>
+  </si>
+  <si>
+    <t>STR99_OP_05</t>
+  </si>
+  <si>
+    <t>check that the user is able to exchange the orders from 
+my orders page</t>
+  </si>
+  <si>
+    <t>1.open the application
+2.enter username and password
+3.click on login button
+4.click on my orders</t>
+  </si>
+  <si>
+    <t>user should be able to exchange the order from 
+their orders page</t>
+  </si>
+  <si>
+    <t>order exchange is not possible</t>
+  </si>
+  <si>
+    <t>STR99_OP_06</t>
   </si>
   <si>
     <t>Version No:1.2.47</t>
@@ -1460,7 +1657,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1471,6 +1668,12 @@
       <b/>
       <sz val="12.0"/>
       <color rgb="FFFF00FF"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <color rgb="FFCC4125"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -1490,8 +1693,8 @@
       <name val="Arial"/>
     </font>
     <font>
-      <b/>
-      <color rgb="FF666666"/>
+      <sz val="10.0"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
@@ -1541,25 +1744,23 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1569,12 +1770,258 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>Defect Distribution</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Defects Distribution'!$A$5:$A$13</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Defects Distribution'!$B$5:$B$13</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="1788610846"/>
+        <c:axId val="1304199468"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1788610846"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Module Name</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1304199468"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1304199468"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t>Total defects</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1788610846"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4362450" cy="2695575"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1858,135 +2305,135 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3"/>
+      <c r="A12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2014,7 +2461,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="36.13"/>
-    <col customWidth="1" min="2" max="2" width="43.0"/>
+    <col customWidth="1" min="2" max="2" width="38.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2023,96 +2470,100 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
-        <v>372</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>373</v>
+      <c r="A2" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>374</v>
+      <c r="B3" s="2" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>376</v>
+      <c r="A4" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="A6" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B6" s="9">
         <v>3.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="B7" s="8">
+      <c r="A7" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B7" s="9">
         <v>2.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="B8" s="8">
+      <c r="A8" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B8" s="9">
         <v>0.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="9">
         <v>3.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="9">
         <v>6.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="B11" s="8">
+      <c r="A11" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B11" s="9">
         <v>1.0</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="B12" s="9"/>
+      <c r="A12" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B12" s="9">
+        <v>3.0</v>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="8" t="s">
-        <v>382</v>
-      </c>
-      <c r="B13" s="9"/>
+      <c r="A13" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B13" s="9">
+        <v>3.0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2142,125 +2593,143 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>385</v>
+      <c r="A2" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="9">
         <v>5.0</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="9">
         <v>0.0</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="9">
         <v>5.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="B4" s="8">
+      <c r="A4" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="B4" s="9">
         <v>10.0</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="9">
         <v>3.0</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="9">
         <v>13.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="8" t="s">
-        <v>378</v>
-      </c>
-      <c r="B5" s="8">
+      <c r="A5" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="B5" s="9">
         <v>9.0</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>2.0</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <v>11.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="8" t="s">
-        <v>379</v>
-      </c>
-      <c r="B6" s="8">
+      <c r="A6" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="B6" s="9">
         <v>10.0</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="9">
         <v>0.0</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="9">
         <v>10.0</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="9">
         <v>5.0</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="9">
         <v>3.0</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="9">
         <v>8.0</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="9">
         <v>5.0</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="9">
         <v>6.0</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="9">
         <v>11.0</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="8" t="s">
-        <v>380</v>
-      </c>
-      <c r="B9" s="8">
+      <c r="A9" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="B9" s="9">
         <v>11.0</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="9">
         <v>1.0</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="9">
         <v>12.0</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="8" t="s">
-        <v>381</v>
+      <c r="A10" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="B10" s="9">
+        <v>9.0</v>
+      </c>
+      <c r="C10" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>12.0</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="8" t="s">
-        <v>382</v>
+      <c r="A11" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2.0</v>
+      </c>
+      <c r="C11" s="9">
+        <v>3.0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>5.0</v>
       </c>
     </row>
   </sheetData>
@@ -2318,305 +2787,305 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D14" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="4" t="s">
+      <c r="G14" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2680,261 +3149,261 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2998,233 +3467,233 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3287,208 +3756,208 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15">
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>242</v>
       </c>
     </row>
@@ -3552,250 +4021,250 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3859,290 +4328,290 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="4" t="s">
         <v>338</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>345</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="4" t="s">
         <v>20</v>
       </c>
     </row>
@@ -4174,10 +4643,10 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="13.25"/>
-    <col customWidth="1" min="2" max="2" width="37.0"/>
+    <col customWidth="1" min="2" max="2" width="39.88"/>
     <col customWidth="1" min="3" max="3" width="38.5"/>
     <col customWidth="1" min="4" max="4" width="18.0"/>
-    <col customWidth="1" min="5" max="5" width="37.75"/>
+    <col customWidth="1" min="5" max="5" width="40.38"/>
     <col customWidth="1" min="6" max="6" width="36.25"/>
   </cols>
   <sheetData>
@@ -4209,132 +4678,273 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>356</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E10" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="E14" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="G17" s="4" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="3" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="3" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="3" t="s">
-        <v>371</v>
-      </c>
+      <c r="H17" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4359,7 +4969,189 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="41.63"/>
+    <col customWidth="1" min="3" max="3" width="34.75"/>
+    <col customWidth="1" min="5" max="5" width="36.38"/>
+    <col customWidth="1" min="6" max="6" width="33.38"/>
+    <col customWidth="1" min="7" max="7" width="11.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="A4:G4"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Testcase.xlsx
+++ b/Testcase.xlsx
@@ -1830,11 +1830,11 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="1788610846"/>
-        <c:axId val="1304199468"/>
+        <c:axId val="1018490523"/>
+        <c:axId val="887196867"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1788610846"/>
+        <c:axId val="1018490523"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1886,10 +1886,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1304199468"/>
+        <c:crossAx val="887196867"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1304199468"/>
+        <c:axId val="887196867"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1964,7 +1964,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1788610846"/>
+        <c:crossAx val="1018490523"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
